--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25961.66164021019</v>
+        <v>-28483.16623072875</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>254.4171115585611</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>347.8120314066645</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>22.3929463385175</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>124.3919772218593</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>200.2912956247912</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>135.6726239875431</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>32.430732320819</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.4287957801264</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.6550532175464</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>324.3727542084981</v>
       </c>
       <c r="Y8" t="n">
-        <v>73.8712711296815</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>75.42385309393741</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>93.1978822301498</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>186.0435781263486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9660676264145</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>34.59690177051123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>63.69463930750803</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>56.49518623012952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.05806357631771</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427914</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>98.03921036659287</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>3.006892987834131</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184371</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.062936918766</v>
+        <v>1522.534039711769</v>
       </c>
       <c r="C2" t="n">
-        <v>1176.100419978354</v>
+        <v>1153.571522771357</v>
       </c>
       <c r="D2" t="n">
-        <v>1176.100419978354</v>
+        <v>795.305824164607</v>
       </c>
       <c r="E2" t="n">
-        <v>790.3121673801097</v>
+        <v>409.5175715663627</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>402.5720708171592</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>2286.139129948661</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918766</v>
+        <v>1912.673371687581</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.062936918766</v>
+        <v>1522.534039711769</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2387.128251861729</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.8611643309008</v>
+        <v>326.0381161665167</v>
       </c>
       <c r="C4" t="n">
-        <v>474.9249814029939</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D4" t="n">
-        <v>324.8083419906582</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>176.895248408265</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>176.895248408265</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>176.895248408265</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4516,22 +4516,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1211.153199244191</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>956.4687110383039</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>956.4687110383039</v>
       </c>
       <c r="X4" t="n">
-        <v>864.6537434744309</v>
+        <v>728.4791601402866</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.8611643309008</v>
+        <v>507.6865809967564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>977.0694062730081</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C5" t="n">
-        <v>977.0694062730081</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>977.0694062730081</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>977.0694062730081</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>566.0835014834006</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>150.3787512076894</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583056</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312942</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312942</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.66924633713</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>622.6901078854036</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="C7" t="n">
-        <v>453.7539249574967</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.02306092153</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>804.3385727156433</v>
+        <v>844.4236553067616</v>
       </c>
       <c r="W7" t="n">
-        <v>804.3385727156433</v>
+        <v>844.4236553067616</v>
       </c>
       <c r="X7" t="n">
-        <v>804.3385727156433</v>
+        <v>844.4236553067616</v>
       </c>
       <c r="Y7" t="n">
-        <v>804.3385727156433</v>
+        <v>844.4236553067616</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.647583030232</v>
+        <v>751.7882586869142</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>751.7882586869142</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>601.6716192745785</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>453.7585256921853</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>306.868578194275</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>306.868578194275</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>160.6513914121327</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>1157.088627004002</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.2960478604717</v>
+        <v>933.436723517154</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811715</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.485192177545</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.068022140585</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.078471242567</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2199.770229732631</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1910.695003076829</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1656.010514870942</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1366.593344833982</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1138.603793935964</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2350.944837543576</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2131.343372566517</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1842.268145910715</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1587.583657704828</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.166487667867</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1070.17693676985</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>849.3843576263199</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="32">
@@ -6683,43 +6683,43 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>96.85392869224876</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,10 +7354,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7546,16 +7546,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>35.91627445172503</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.4589341831503</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>63.73567136628947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>43.27027920355326</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856647</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>66.09406519747944</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>18.61858572568033</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>217.5407415533168</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>153.7108110197802</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>92.12028678808284</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>85.96822242532689</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>32.89260457060001</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26323,7 +26323,7 @@
         <v>322858.6398760025</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760026</v>
@@ -26335,7 +26335,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760024</v>
@@ -26347,13 +26347,13 @@
         <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.38997943731</v>
+        <v>94171.38997943734</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
@@ -26430,34 +26430,34 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756593</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756603</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756644</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756646</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1003267.180215732</v>
+        <v>-1003453.573604271</v>
       </c>
       <c r="C6" t="n">
-        <v>98752.66181376629</v>
+        <v>98752.66181376632</v>
       </c>
       <c r="D6" t="n">
-        <v>-60668.60818412561</v>
+        <v>-60668.60818412584</v>
       </c>
       <c r="E6" t="n">
-        <v>-113013.5521120163</v>
+        <v>-113048.290037452</v>
       </c>
       <c r="F6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.1717699029</v>
       </c>
       <c r="G6" t="n">
-        <v>212398.909695339</v>
+        <v>212364.1717699032</v>
       </c>
       <c r="H6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.171769903</v>
       </c>
       <c r="I6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.171769903</v>
       </c>
       <c r="J6" t="n">
-        <v>44793.73188535606</v>
+        <v>44758.99395992045</v>
       </c>
       <c r="K6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.171769903</v>
       </c>
       <c r="L6" t="n">
-        <v>164104.9396871479</v>
+        <v>164070.2017617122</v>
       </c>
       <c r="M6" t="n">
-        <v>127343.8817598269</v>
+        <v>127309.1438343912</v>
       </c>
       <c r="N6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.1717699029</v>
       </c>
       <c r="O6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.171769903</v>
       </c>
       <c r="P6" t="n">
-        <v>212398.9096953388</v>
+        <v>212364.171769903</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.8480223788955</v>
       </c>
       <c r="X2" t="n">
-        <v>326.4608214749157</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>22.85953193326952</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>85.93585849640937</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>247.0612176759375</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>268.5878202415864</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,16 +27673,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>10.79835834107416</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.48259010628163</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>45.35834646997091</v>
       </c>
       <c r="Y8" t="n">
-        <v>312.3666675263721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>91.82296800469042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>3.154538179688288</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,10 +34132,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>152.3969967825795</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
